--- a/InputData/elec/TCAMRB/Trans Cap Across Modeled Region Border.xlsx
+++ b/InputData/elec/TCAMRB/Trans Cap Across Modeled Region Border.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2180" yWindow="460" windowWidth="25600" windowHeight="18880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2180" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -122,7 +122,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -141,6 +141,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,7 +531,8 @@
   <cols>
     <col width="11.33203125" customWidth="1" style="10" min="1" max="1"/>
     <col width="62.5" customWidth="1" style="10" min="2" max="2"/>
-    <col width="8.83203125" customWidth="1" style="10" min="3" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="10" min="3" max="3"/>
+    <col width="8.83203125" customWidth="1" style="10" min="4" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" s="5">
@@ -543,6 +545,9 @@
         <is>
           <t>Georgia</t>
         </is>
+      </c>
+      <c r="C1" s="16" t="n">
+        <v>44307</v>
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
@@ -34691,7 +34696,8 @@
   <cols>
     <col width="8.83203125" customWidth="1" style="10" min="1" max="1"/>
     <col width="19.33203125" customWidth="1" style="10" min="2" max="2"/>
-    <col width="8.83203125" customWidth="1" style="10" min="3" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="10" min="3" max="3"/>
+    <col width="8.83203125" customWidth="1" style="10" min="4" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
